--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\02156\Documents\program\accounting\#3 純資産額の推移を可視化する\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\02156\Documents\program\accounting\#4 予算管理を実現する\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F3AF73-C6DC-4F14-996B-D334C3E71BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB29D0C5-F2AC-4312-A5DF-E831C391F48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{36CC4F51-97B5-4998-A0C3-1317BF6188B6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="176">
   <si>
     <t>勘定科目(借方)</t>
   </si>
@@ -590,6 +590,12 @@
     </r>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>簿記3級受験料</t>
+  </si>
+  <si>
+    <t>楽天証券投信積立</t>
+  </si>
 </sst>
 </file>
 
@@ -649,7 +655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -777,13 +783,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,6 +866,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1181,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AB55F2-656F-431C-BDFD-D85436074A90}">
-  <dimension ref="A1:Y961"/>
+  <dimension ref="A1:Y962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8526,23 +8550,21 @@
       <c r="Y198" s="1"/>
     </row>
     <row r="199" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="4">
-        <v>46039</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>47</v>
+      <c r="A199" s="4"/>
+      <c r="B199" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="C199" s="6">
-        <v>3000</v>
-      </c>
-      <c r="D199" s="20" t="s">
-        <v>173</v>
+        <v>50000</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E199" s="6">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
@@ -8565,21 +8587,23 @@
       <c r="Y199" s="1"/>
     </row>
     <row r="200" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="7"/>
+      <c r="A200" s="4">
+        <v>46039</v>
+      </c>
       <c r="B200" s="5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C200" s="6">
-        <v>1080</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>8</v>
+        <v>3000</v>
+      </c>
+      <c r="D200" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="E200" s="6">
-        <v>1080</v>
+        <v>3000</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -8604,19 +8628,19 @@
     <row r="201" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
       <c r="B201" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C201" s="6">
-        <v>500</v>
+        <v>1080</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E201" s="6">
-        <v>500</v>
+        <v>1080</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -8639,23 +8663,21 @@
       <c r="Y201" s="1"/>
     </row>
     <row r="202" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="4">
-        <v>46040</v>
-      </c>
+      <c r="A202" s="7"/>
       <c r="B202" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C202" s="6">
-        <v>1750</v>
-      </c>
-      <c r="D202" s="10" t="s">
-        <v>55</v>
+        <v>500</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E202" s="6">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -8678,18 +8700,20 @@
       <c r="Y202" s="1"/>
     </row>
     <row r="203" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="7"/>
+      <c r="A203" s="4">
+        <v>46040</v>
+      </c>
       <c r="B203" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C203" s="6">
-        <v>650</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>19</v>
+        <v>1750</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="E203" s="6">
-        <v>650</v>
+        <v>1750</v>
       </c>
       <c r="F203" s="8" t="s">
         <v>51</v>
@@ -8720,16 +8744,16 @@
         <v>8</v>
       </c>
       <c r="C204" s="6">
-        <v>9500</v>
+        <v>650</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E204" s="6">
-        <v>9500</v>
+        <v>650</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -8752,12 +8776,22 @@
       <c r="Y204" s="1"/>
     </row>
     <row r="205" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
+      <c r="A205" s="7"/>
+      <c r="B205" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="6">
+        <v>9500</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E205" s="6">
+        <v>9500</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -8779,12 +8813,24 @@
       <c r="Y205" s="1"/>
     </row>
     <row r="206" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
+      <c r="A206" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" s="6">
+        <v>4000</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -29190,6 +29236,33 @@
       <c r="X961" s="1"/>
       <c r="Y961" s="1"/>
     </row>
+    <row r="962" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A962" s="1"/>
+      <c r="B962" s="1"/>
+      <c r="C962" s="1"/>
+      <c r="D962" s="1"/>
+      <c r="E962" s="1"/>
+      <c r="F962" s="1"/>
+      <c r="G962" s="1"/>
+      <c r="H962" s="1"/>
+      <c r="I962" s="1"/>
+      <c r="J962" s="1"/>
+      <c r="K962" s="1"/>
+      <c r="L962" s="1"/>
+      <c r="M962" s="1"/>
+      <c r="N962" s="1"/>
+      <c r="O962" s="1"/>
+      <c r="P962" s="1"/>
+      <c r="Q962" s="1"/>
+      <c r="R962" s="1"/>
+      <c r="S962" s="1"/>
+      <c r="T962" s="1"/>
+      <c r="U962" s="1"/>
+      <c r="V962" s="1"/>
+      <c r="W962" s="1"/>
+      <c r="X962" s="1"/>
+      <c r="Y962" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
